--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3727.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3727.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.261959205313766</v>
+        <v>2.270540475845337</v>
       </c>
       <c r="B1">
-        <v>2.384903695367913</v>
+        <v>2.485193729400635</v>
       </c>
       <c r="C1">
-        <v>5.737050063822033</v>
+        <v>2.48551607131958</v>
       </c>
       <c r="D1">
-        <v>2.846733880334642</v>
+        <v>2.142321825027466</v>
       </c>
       <c r="E1">
-        <v>1.122804112101728</v>
+        <v>1.537627935409546</v>
       </c>
     </row>
   </sheetData>
